--- a/test_data/test_case_api.xlsx
+++ b/test_data/test_case_api.xlsx
@@ -223,8 +223,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -268,7 +268,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,20 +318,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -305,7 +351,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,82 +394,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,19 +404,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,30 +566,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,127 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,13 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,17 +702,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -739,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>

--- a/test_data/test_case_api.xlsx
+++ b/test_data/test_case_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555" tabRatio="598"/>
+    <workbookView windowWidth="21000" windowHeight="8555" tabRatio="598" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -267,28 +267,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,64 +312,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,25 +366,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +648,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -659,21 +670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,15 +692,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -713,11 +700,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -739,16 +739,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -757,115 +757,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
@@ -1571,7 +1571,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
@@ -1633,7 +1633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1655,8 +1655,9 @@
       <c r="G3" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1678,6 +1679,7 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">

--- a/test_data/test_case_api.xlsx
+++ b/test_data/test_case_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555" tabRatio="598" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8555" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -266,6 +266,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -273,9 +296,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,63 +343,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,30 +372,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +625,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -648,17 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -670,6 +674,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,166 +721,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
@@ -1571,7 +1571,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
